--- a/data/2023_BET_nest_record_summary.xlsx
+++ b/data/2023_BET_nest_record_summary.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/randall_friendly_fws_gov1/Documents/Documents/Biological Programs/Tree Swallow Nest Box Monitoring/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfriendly\OneDrive - DOI\Documents\Biological Programs\Tree Swallow Nest Box Monitoring\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{DA5616DD-4AAF-41B9-AE06-FE6BFFC8A1D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83512FAC-0F7C-40C9-B8F0-2EEA5F1D868F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9584C645-11C0-448B-BA33-D0A64947FC93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="0" windowWidth="21630" windowHeight="6440" xr2:uid="{BD582D2F-836B-4721-9C05-C19BAEABB1A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{225AAC4C-E14E-43F6-869A-43FF03FE768C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>box_number</t>
   </si>
@@ -47,6 +47,9 @@
     <t>site</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
     <t>nest_initiation</t>
   </si>
   <si>
@@ -65,9 +68,18 @@
     <t>predicted_hatch</t>
   </si>
   <si>
+    <t>actual_hatch</t>
+  </si>
+  <si>
     <t>predicted_fledge</t>
   </si>
   <si>
+    <t>actual_fledge</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
     <t>number_eggs</t>
   </si>
   <si>
@@ -83,44 +95,74 @@
     <t>date_banded_male</t>
   </si>
   <si>
+    <t>male_band_number</t>
+  </si>
+  <si>
     <t>date_banded_female</t>
   </si>
   <si>
+    <t>female_band_number</t>
+  </si>
+  <si>
     <t>date_banded_chicks</t>
   </si>
   <si>
-    <t>successful</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>actual_hatch</t>
-  </si>
-  <si>
-    <t>actual_fledge</t>
-  </si>
-  <si>
-    <t>male_band_number</t>
-  </si>
-  <si>
-    <t>female_band_number</t>
-  </si>
-  <si>
     <t>chick_band_number</t>
   </si>
   <si>
+    <t>TRES</t>
+  </si>
+  <si>
+    <t>Bethel</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>281100992 - 993   160106752-757</t>
+  </si>
+  <si>
+    <t>281100       981-987</t>
+  </si>
+  <si>
+    <t>281100    975 - 980</t>
+  </si>
+  <si>
+    <t>160106    764-768</t>
+  </si>
+  <si>
+    <t>160106    707-711</t>
+  </si>
+  <si>
+    <t>160106    714-719</t>
+  </si>
+  <si>
+    <t>160106    776-777</t>
+  </si>
+  <si>
+    <t>160106    701-703</t>
+  </si>
+  <si>
+    <t>160106    742-744</t>
+  </si>
+  <si>
+    <t>160106    726-731</t>
+  </si>
+  <si>
+    <t>160106    759-763</t>
+  </si>
+  <si>
     <t>42A</t>
   </si>
   <si>
-    <t>42B</t>
+    <t>160106     737-740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,39 +170,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FFD9E1F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -168,56 +187,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF8EA9DB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF8EA9DB"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,110 +530,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1881F0DE-8046-47B1-8752-0A1E9DE2B4C9}">
-  <dimension ref="A1:X28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49536955-1E36-49CA-BB4F-B94C8019CBDE}">
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M28"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.81640625" customWidth="1"/>
-    <col min="15" max="15" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.1796875" customWidth="1"/>
-    <col min="21" max="21" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.6328125" customWidth="1"/>
-    <col min="23" max="23" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="11" max="11" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" customWidth="1"/>
+    <col min="19" max="19" width="18.26953125" customWidth="1"/>
+    <col min="20" max="20" width="18.7265625" customWidth="1"/>
+    <col min="21" max="21" width="19.1796875" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
+    <col min="23" max="23" width="19.1796875" customWidth="1"/>
+    <col min="24" max="24" width="53.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -662,67 +640,165 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="H2" s="2">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="1">
+        <v>45074</v>
+      </c>
+      <c r="H2" s="1">
         <v>45083</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="1">
         <v>45082</v>
       </c>
-      <c r="K2" s="2">
+      <c r="J2" s="1">
         <v>45096</v>
       </c>
-      <c r="M2" s="8">
-        <v>45120</v>
+      <c r="K2" s="1">
+        <v>45096</v>
+      </c>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="U2" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V2">
+        <v>281100988</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45110</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="1">
+        <v>45069</v>
+      </c>
+      <c r="H3" s="1">
         <v>45075</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="1">
         <v>45074</v>
       </c>
-      <c r="K3" s="3">
-        <v>45089</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="J3" s="1">
+        <v>45088</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45093</v>
+      </c>
+      <c r="L3" s="1">
+        <v>45108</v>
+      </c>
+      <c r="M3" s="1">
         <v>45113</v>
       </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H4" s="1">
         <v>45083</v>
       </c>
-      <c r="I4" s="3">
-        <v>45082</v>
-      </c>
-      <c r="K4" s="3">
-        <v>45099</v>
-      </c>
-      <c r="M4" s="9">
-        <v>45109</v>
+      <c r="I4" s="1">
+        <v>45083</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45097</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45100</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+      <c r="U4" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V4">
+        <v>281100974</v>
+      </c>
+      <c r="W4" s="1">
+        <v>45110</v>
+      </c>
+      <c r="X4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45086</v>
+      </c>
+      <c r="H5" s="1">
         <v>45090</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>45089</v>
       </c>
-      <c r="K5" s="2">
-        <v>45104</v>
-      </c>
-      <c r="M5" s="8">
+      <c r="J5" s="1">
+        <v>45103</v>
+      </c>
+      <c r="L5" s="1">
         <v>45117</v>
       </c>
     </row>
@@ -730,375 +806,862 @@
       <c r="A6">
         <v>6</v>
       </c>
-      <c r="H6" s="3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>2023</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45082</v>
+      </c>
+      <c r="H6" s="1">
         <v>45087</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>45086</v>
       </c>
-      <c r="K6" s="3">
-        <v>45102</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="J6" s="1">
+        <v>45101</v>
+      </c>
+      <c r="L6" s="1">
         <v>45115</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>45111</v>
+      </c>
+      <c r="T6">
+        <v>160106748</v>
+      </c>
+      <c r="W6" s="1">
+        <v>45112</v>
+      </c>
+      <c r="X6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2023</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45085</v>
+      </c>
+      <c r="H7" s="1">
         <v>45090</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>45089</v>
       </c>
-      <c r="K7" s="2">
+      <c r="J7" s="1">
+        <v>45103</v>
+      </c>
+      <c r="K7" s="1">
         <v>45108</v>
       </c>
-      <c r="M7" s="8">
-        <v>45125</v>
+      <c r="O7">
+        <v>6</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="S7" s="1">
+        <v>45110</v>
+      </c>
+      <c r="T7">
+        <v>160106712</v>
+      </c>
+      <c r="U7" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V7">
+        <v>160106706</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
-      <c r="H8" s="3">
-        <v>45084</v>
-      </c>
-      <c r="I8" s="3">
-        <v>45083</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>2023</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45078</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45081</v>
+      </c>
+      <c r="I8" s="1">
+        <v>45080</v>
+      </c>
+      <c r="J8" s="1">
         <v>45094</v>
       </c>
-      <c r="M8" s="9">
-        <v>45109</v>
+      <c r="L8" s="1">
+        <v>45108</v>
+      </c>
+      <c r="M8" s="1">
+        <v>45115</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V8">
+        <v>160106713</v>
+      </c>
+      <c r="W8" s="1">
+        <v>45110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
-      <c r="H9" s="2">
-        <v>45085</v>
-      </c>
-      <c r="I9" s="2">
-        <v>45084</v>
-      </c>
-      <c r="K9" s="2">
-        <v>45097</v>
-      </c>
-      <c r="M9" s="8">
-        <v>45107</v>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2023</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45078</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45082</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45081</v>
+      </c>
+      <c r="J9" s="1">
+        <v>45096</v>
+      </c>
+      <c r="L9" s="1">
+        <v>45111</v>
+      </c>
+      <c r="M9" s="1">
+        <v>45117</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>45110</v>
+      </c>
+      <c r="T9">
+        <v>160106721</v>
+      </c>
+      <c r="U9" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V9">
+        <v>160106720</v>
+      </c>
+      <c r="W9" s="1">
+        <v>45110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
-      <c r="H10" s="3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>2023</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45080</v>
+      </c>
+      <c r="H10" s="1">
+        <v>45087</v>
+      </c>
+      <c r="I10" s="1">
         <v>45085</v>
       </c>
-      <c r="I10" s="3">
-        <v>45084</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="J10" s="1">
+        <v>45099</v>
+      </c>
+      <c r="K10" s="1">
         <v>45100</v>
       </c>
-      <c r="M10" s="9">
-        <v>45121</v>
+      <c r="M10" s="1">
+        <v>45120</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="U10" s="1">
+        <v>45112</v>
+      </c>
+      <c r="V10">
+        <v>160106758</v>
+      </c>
+      <c r="W10" s="1">
+        <v>45110</v>
+      </c>
+      <c r="X10" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
-      <c r="H11" s="2">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2023</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45083</v>
+      </c>
+      <c r="H11" s="1">
         <v>45093</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>45092</v>
       </c>
-      <c r="K11" s="2">
+      <c r="J11" s="1">
         <v>45106</v>
       </c>
-      <c r="M11" s="8">
-        <v>45125</v>
+      <c r="U11" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V11">
+        <v>281100991</v>
+      </c>
+      <c r="W11" s="1">
+        <v>45117</v>
+      </c>
+      <c r="X11" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
-      <c r="H12" s="3">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>2023</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45075</v>
+      </c>
+      <c r="H12" s="1">
         <v>45086</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>45085</v>
       </c>
-      <c r="K12" s="3">
+      <c r="J12" s="1">
         <v>45099</v>
       </c>
-      <c r="M12" s="9">
-        <v>45119</v>
+      <c r="L12" s="1">
+        <v>45115</v>
+      </c>
+      <c r="M12" s="1">
+        <v>45118</v>
+      </c>
+      <c r="N12" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45085</v>
-      </c>
-      <c r="I13" s="2">
-        <v>45084</v>
-      </c>
-      <c r="K13" s="6"/>
-      <c r="M13" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>2023</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45097</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45101</v>
+      </c>
+      <c r="I13" s="1">
+        <v>45100</v>
+      </c>
+      <c r="J13" s="1">
+        <v>45112</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1">
+        <v>45111</v>
+      </c>
+      <c r="V13">
+        <v>160106734</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="H14" s="3">
-        <v>45101</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>45115</v>
-      </c>
-      <c r="M14" s="11"/>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>2023</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45082</v>
+      </c>
+      <c r="H14" s="1">
+        <v>45085</v>
+      </c>
+      <c r="I14" s="1">
+        <v>45084</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45098</v>
+      </c>
+      <c r="L14" s="1">
+        <v>45094</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>45110</v>
+      </c>
+      <c r="T14">
+        <v>160106705</v>
+      </c>
+      <c r="U14" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V14">
+        <v>160106704</v>
+      </c>
+      <c r="W14" s="1">
+        <v>45110</v>
+      </c>
+      <c r="X14" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45085</v>
-      </c>
-      <c r="I15" s="2">
-        <v>45084</v>
-      </c>
-      <c r="K15" s="2">
-        <v>45099</v>
-      </c>
-      <c r="M15" s="8">
-        <v>45120</v>
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2023</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45086</v>
+      </c>
+      <c r="H15" s="1">
+        <v>45090</v>
+      </c>
+      <c r="I15" s="1">
+        <v>45089</v>
+      </c>
+      <c r="J15" s="1">
+        <v>45104</v>
+      </c>
+      <c r="L15" s="1">
+        <v>45126</v>
+      </c>
+      <c r="M15" s="1">
+        <v>45111</v>
+      </c>
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="U15" s="1">
+        <v>45111</v>
+      </c>
+      <c r="V15">
+        <v>160106745</v>
+      </c>
+      <c r="W15" s="1">
+        <v>45111</v>
+      </c>
+      <c r="X15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3">
-        <v>45096</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45095</v>
-      </c>
-      <c r="K16" s="3">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>2023</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45072</v>
+      </c>
+      <c r="H16" s="1">
+        <v>45076</v>
+      </c>
+      <c r="I16" s="1">
+        <v>45075</v>
+      </c>
+      <c r="K16" s="1">
+        <v>45089</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45101</v>
+      </c>
+      <c r="M16" s="1">
+        <v>45114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45086</v>
+      </c>
+      <c r="H17" s="1">
+        <v>45090</v>
+      </c>
+      <c r="I17" s="1">
+        <v>45089</v>
+      </c>
+      <c r="J17" s="1">
+        <v>45103</v>
+      </c>
+      <c r="K17" s="1">
         <v>45104</v>
       </c>
-      <c r="M16" s="9">
-        <v>45114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45076</v>
-      </c>
-      <c r="I17" s="2">
-        <v>45075</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="L17" s="1">
+        <v>45120</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="S17" s="1">
+        <v>45110</v>
+      </c>
+      <c r="T17">
+        <v>160106722</v>
+      </c>
+      <c r="U17" s="1">
+        <v>45110</v>
+      </c>
+      <c r="V17">
+        <v>160106723</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>2023</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45073</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>2023</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1">
+        <v>45090</v>
+      </c>
+      <c r="I19" s="1">
         <v>45089</v>
       </c>
-      <c r="M17" s="8">
-        <v>45101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>22</v>
-      </c>
-      <c r="H18" s="3">
-        <v>45091</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45090</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="J19" s="1">
         <v>45103</v>
       </c>
-      <c r="M18" s="9">
-        <v>45120</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="H19" s="2">
-        <v>45084</v>
-      </c>
-      <c r="I19" s="2">
-        <v>45083</v>
-      </c>
-      <c r="K19" s="2">
-        <v>45097</v>
-      </c>
-      <c r="M19" s="8"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L19" s="1">
+        <v>45117</v>
+      </c>
+      <c r="O19">
+        <v>6</v>
+      </c>
+      <c r="U19" s="1">
+        <v>45112</v>
+      </c>
+      <c r="V19">
+        <v>160106749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>30</v>
       </c>
-      <c r="H20" s="3">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20">
+        <v>2023</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45084</v>
+      </c>
+      <c r="H20" s="1">
         <v>45088</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>45087</v>
       </c>
-      <c r="K20" s="3">
+      <c r="J20" s="1">
         <v>45101</v>
       </c>
-      <c r="M20" s="9"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="K20" s="1">
+        <v>45105</v>
+      </c>
+      <c r="L20" s="1">
+        <v>45118</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>45111</v>
+      </c>
+      <c r="T20">
+        <v>160106735</v>
+      </c>
+      <c r="U20" s="1">
+        <v>45111</v>
+      </c>
+      <c r="V20">
+        <v>160106736</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>31</v>
       </c>
-      <c r="H21" s="2">
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>2023</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45075</v>
+      </c>
+      <c r="H21" s="1">
+        <v>45083</v>
+      </c>
+      <c r="I21" s="1">
         <v>45082</v>
       </c>
-      <c r="I21" s="2">
-        <v>45081</v>
-      </c>
-      <c r="K21" s="2">
-        <v>45102</v>
-      </c>
-      <c r="M21" s="8">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J21" s="1">
+        <v>45097</v>
+      </c>
+      <c r="L21" s="1">
+        <v>45111</v>
+      </c>
+      <c r="M21" s="1">
+        <v>45116</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>6</v>
+      </c>
+      <c r="W21" s="1">
+        <v>45111</v>
+      </c>
+      <c r="X21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>33</v>
       </c>
-      <c r="H22" s="2">
-        <v>45096</v>
-      </c>
-      <c r="I22" s="2">
-        <v>45095</v>
-      </c>
-      <c r="K22" s="2">
-        <v>45103</v>
-      </c>
-      <c r="M22" s="8">
-        <v>45125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>2023</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45074</v>
+      </c>
+      <c r="K22" s="1">
+        <v>45102</v>
+      </c>
+      <c r="L22" s="1">
+        <v>45121</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>5</v>
+      </c>
+      <c r="U22" s="1">
+        <v>45111</v>
+      </c>
+      <c r="V22">
+        <v>160106747</v>
+      </c>
+      <c r="X22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>40</v>
       </c>
-      <c r="H23" s="3">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>2023</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45079</v>
+      </c>
+      <c r="H23" s="1">
         <v>45091</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>45090</v>
       </c>
-      <c r="K23" s="3">
+      <c r="J23" s="1">
         <v>45104</v>
       </c>
-      <c r="M23" s="9">
-        <v>45116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L23" s="1">
+        <v>45118</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="W23" s="1">
+        <v>45114</v>
+      </c>
+      <c r="X23" s="3">
+        <v>772774775</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" s="3">
-        <v>45091</v>
-      </c>
-      <c r="I24" s="3">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45086</v>
+      </c>
+      <c r="H24" s="1">
         <v>45090</v>
       </c>
-      <c r="K24" s="3">
+      <c r="I24" s="1">
+        <v>45089</v>
+      </c>
+      <c r="J24" s="1">
+        <v>45103</v>
+      </c>
+      <c r="K24" s="1">
         <v>45105</v>
       </c>
-      <c r="M24" s="9">
+      <c r="L24" s="1">
         <v>45120</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O24" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>44</v>
       </c>
-      <c r="H25" s="3">
-        <v>45093</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45092</v>
-      </c>
-      <c r="K25" s="3">
-        <v>45105</v>
-      </c>
-      <c r="M25" s="9">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>2023</v>
+      </c>
+      <c r="O25">
+        <v>6</v>
+      </c>
+      <c r="S25" s="1">
+        <v>45111</v>
+      </c>
+      <c r="T25">
+        <v>160106741</v>
+      </c>
+      <c r="W25" s="1">
+        <v>45111</v>
+      </c>
+      <c r="X25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>45</v>
       </c>
-      <c r="H26" s="2">
-        <v>45102</v>
-      </c>
-      <c r="I26" s="2">
-        <v>45101</v>
-      </c>
-      <c r="K26" s="2">
-        <v>45110</v>
-      </c>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>36</v>
-      </c>
-      <c r="H27" s="3">
-        <v>45085</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45084</v>
-      </c>
-      <c r="K27" s="7"/>
-      <c r="M27" s="11"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2">
-        <v>45090</v>
-      </c>
-      <c r="I28" s="2">
-        <v>45089</v>
-      </c>
-      <c r="K28" s="2">
-        <v>45105</v>
-      </c>
-      <c r="M28" s="8">
-        <v>45120</v>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>2023</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45079</v>
       </c>
     </row>
   </sheetData>
